--- a/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Projects\CommTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D57923-07C8-4FF5-8103-865CA7534B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DE1F59-9485-40FF-8645-F0FA91E05BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32355" yWindow="-900" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,321 +346,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G22"/>
+  <dimension ref="C1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C1">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="D1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1">
         <v>10</v>
       </c>
       <c r="G1">
         <f>+AVERAGE(C1:E1)</f>
-        <v>5.666666666666667</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2">
-        <f>+(AVERAGE(C1:D1)+$C$1)/2</f>
-        <v>2.75</v>
+        <f>+AVERAGE(C1:D1)</f>
+        <v>103</v>
       </c>
       <c r="D2">
-        <f>+AVERAGE(C1:E1)</f>
-        <v>5.666666666666667</v>
+        <f>+AVERAGE(D1:E1)</f>
+        <v>8</v>
       </c>
       <c r="E2">
-        <f>+(AVERAGE(D1:E1)+$E$1)/2</f>
-        <v>8.75</v>
+        <f>+AVERAGE(D1:E1)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3">
-        <f>+(AVERAGE(C2:D2)+$C$1)/2</f>
-        <v>3.104166666666667</v>
+        <f>+AVERAGE(C2:D2)</f>
+        <v>55.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D22" si="0">+AVERAGE(C2:E2)</f>
-        <v>5.7222222222222223</v>
+        <f>+AVERAGE(C2:D2)</f>
+        <v>55.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="1">+(AVERAGE(D2:E2)+$E$1)/2</f>
-        <v>8.6041666666666679</v>
+        <f>+AVERAGE(D2:E2)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4">
-        <f t="shared" ref="C3:C22" si="2">+(AVERAGE(C3:D3)+$C$1)/2</f>
-        <v>3.2065972222222223</v>
+        <f t="shared" ref="C4:C57" si="0">+AVERAGE(C3:D3)</f>
+        <v>55.5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>5.810185185185186</v>
+        <f t="shared" ref="D4:D35" si="1">+AVERAGE(D3:E3)</f>
+        <v>31.75</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>8.5815972222222214</v>
+        <f t="shared" ref="E4:E57" si="2">+AVERAGE(D3:E3)</f>
+        <v>31.75</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f t="shared" si="2"/>
-        <v>3.2541956018518521</v>
+        <f t="shared" si="0"/>
+        <v>43.625</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>5.8661265432098766</v>
+        <f t="shared" ref="D5:D36" si="3">+AVERAGE(C4:D4)</f>
+        <v>43.625</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>8.5979456018518512</v>
+        <f t="shared" si="2"/>
+        <v>31.75</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
-        <f t="shared" si="2"/>
-        <v>3.2800805362654319</v>
+        <f t="shared" si="0"/>
+        <v>43.625</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5.9060892489711927</v>
+        <f t="shared" ref="D6:D37" si="4">+AVERAGE(D5:E5)</f>
+        <v>37.6875</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>8.6160180362654319</v>
+        <f t="shared" si="2"/>
+        <v>37.6875</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
-        <f t="shared" si="2"/>
-        <v>3.2965424463091564</v>
+        <f t="shared" si="0"/>
+        <v>40.65625</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5.9340626071673528</v>
+        <f t="shared" ref="D7:D38" si="5">+AVERAGE(C6:D6)</f>
+        <v>40.65625</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>8.6305268213091573</v>
+        <f t="shared" si="2"/>
+        <v>37.6875</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>3.3076512633691273</v>
+        <f t="shared" si="0"/>
+        <v>40.65625</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5.9537106249285552</v>
+        <f t="shared" ref="D8:D39" si="6">+AVERAGE(D7:E7)</f>
+        <v>39.171875</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>8.6411473571191273</v>
+        <f t="shared" si="2"/>
+        <v>39.171875</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
-        <f t="shared" si="2"/>
-        <v>3.3153404720744204</v>
+        <f t="shared" si="0"/>
+        <v>39.9140625</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5.967503081805603</v>
+        <f t="shared" ref="D9:D40" si="7">+AVERAGE(C8:D8)</f>
+        <v>39.9140625</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>8.6487144955119213</v>
+        <f t="shared" si="2"/>
+        <v>39.171875</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>3.3207108884700061</v>
+        <f t="shared" si="0"/>
+        <v>39.9140625</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>5.9771860164639818</v>
+        <f t="shared" ref="D10:D57" si="8">+AVERAGE(D9:E9)</f>
+        <v>39.54296875</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
-        <v>8.6540543943293819</v>
+        <f t="shared" si="2"/>
+        <v>39.54296875</v>
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>3.3244742262334972</v>
+        <f t="shared" si="0"/>
+        <v>39.728515625</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>5.9839837664211233</v>
+        <f t="shared" ref="D11:D57" si="9">+AVERAGE(C10:D10)</f>
+        <v>39.728515625</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>8.6578101026983418</v>
+        <f t="shared" si="2"/>
+        <v>39.54296875</v>
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>3.3271144981636551</v>
+        <f t="shared" si="0"/>
+        <v>39.728515625</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>5.9887560317843205</v>
+        <f t="shared" ref="D12:D57" si="10">+AVERAGE(D11:E11)</f>
+        <v>39.6357421875</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>8.6604484672798669</v>
+        <f t="shared" si="2"/>
+        <v>39.6357421875</v>
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>3.3289676324869939</v>
+        <f t="shared" si="0"/>
+        <v>39.68212890625</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>5.9921063324092811</v>
+        <f t="shared" ref="D13:D57" si="11">+AVERAGE(C12:D12)</f>
+        <v>39.68212890625</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>8.6623011247660457</v>
+        <f t="shared" si="2"/>
+        <v>39.6357421875</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>3.3302684912240688</v>
+        <f t="shared" si="0"/>
+        <v>39.68212890625</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>5.9944583632207733</v>
+        <f t="shared" ref="D14:D57" si="12">+AVERAGE(D13:E13)</f>
+        <v>39.658935546875</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>8.6636018642938311</v>
+        <f t="shared" si="2"/>
+        <v>39.658935546875</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
-        <f t="shared" si="2"/>
-        <v>3.3311817136112105</v>
+        <f t="shared" si="0"/>
+        <v>39.6705322265625</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5.9961095729128902</v>
+        <f t="shared" ref="D15:D57" si="13">+AVERAGE(C14:D14)</f>
+        <v>39.6705322265625</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>8.6645150568786509</v>
+        <f t="shared" si="2"/>
+        <v>39.658935546875</v>
       </c>
     </row>
     <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16">
-        <f t="shared" si="2"/>
-        <v>3.3318228216310253</v>
+        <f t="shared" si="0"/>
+        <v>39.6705322265625</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>5.9972687811342498</v>
+        <f t="shared" ref="D16:D57" si="14">+AVERAGE(D15:E15)</f>
+        <v>39.66473388671875</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>8.6651561574478855</v>
+        <f t="shared" si="2"/>
+        <v>39.66473388671875</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17">
-        <f t="shared" si="2"/>
-        <v>3.3322729006913185</v>
+        <f t="shared" si="0"/>
+        <v>39.667633056640625</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>5.9980825867377199</v>
+        <f t="shared" ref="D17:D57" si="15">+AVERAGE(C16:D16)</f>
+        <v>39.667633056640625</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>8.6656062346455336</v>
+        <f t="shared" si="2"/>
+        <v>39.66473388671875</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18">
-        <f t="shared" si="2"/>
-        <v>3.3325888718572596</v>
+        <f t="shared" si="0"/>
+        <v>39.667633056640625</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>5.9986539073581904</v>
+        <f t="shared" ref="D18:D57" si="16">+AVERAGE(D17:E17)</f>
+        <v>39.666183471679688</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>8.6659222053458134</v>
+        <f t="shared" si="2"/>
+        <v>39.666183471679688</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19">
-        <f t="shared" si="2"/>
-        <v>3.3328106948038627</v>
+        <f t="shared" si="0"/>
+        <v>39.666908264160156</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>5.999054994853755</v>
+        <f t="shared" ref="D19:D57" si="17">+AVERAGE(C18:D18)</f>
+        <v>39.666908264160156</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
-        <v>8.6661440281760012</v>
+        <f t="shared" si="2"/>
+        <v>39.666183471679688</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20">
-        <f t="shared" si="2"/>
-        <v>3.3329664224144047</v>
+        <f t="shared" si="0"/>
+        <v>39.666908264160156</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>5.999336572611206</v>
+        <f t="shared" ref="D20:D57" si="18">+AVERAGE(D19:E19)</f>
+        <v>39.666545867919922</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>8.6662997557574393</v>
+        <f t="shared" si="2"/>
+        <v>39.666545867919922</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>3.3330757487564027</v>
+        <f t="shared" si="0"/>
+        <v>39.666727066040039</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>5.9995342502610169</v>
+        <f t="shared" ref="D21:D57" si="19">+AVERAGE(C20:D20)</f>
+        <v>39.666727066040039</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>8.6664090820921622</v>
+        <f t="shared" si="2"/>
+        <v>39.666545867919922</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22">
-        <f t="shared" si="2"/>
-        <v>3.3331524997543549</v>
+        <f t="shared" si="0"/>
+        <v>39.666727066040039</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>5.9996730270365264</v>
+        <f t="shared" ref="D22:D57" si="20">+AVERAGE(D21:E21)</f>
+        <v>39.66663646697998</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>8.666485833088295</v>
+        <f t="shared" si="2"/>
+        <v>39.66663646697998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>39.66668176651001</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D57" si="21">+AVERAGE(C22:D22)</f>
+        <v>39.66668176651001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>39.66663646697998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>39.66668176651001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D57" si="22">+AVERAGE(D23:E23)</f>
+        <v>39.666659116744995</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>39.666659116744995</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>39.666670441627502</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D57" si="23">+AVERAGE(C24:D24)</f>
+        <v>39.666670441627502</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>39.666659116744995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>39.666670441627502</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D57" si="24">+AVERAGE(D25:E25)</f>
+        <v>39.666664779186249</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>39.666664779186249</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>39.666667610406876</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D57" si="25">+AVERAGE(C26:D26)</f>
+        <v>39.666667610406876</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>39.666664779186249</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>39.666667610406876</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D57" si="26">+AVERAGE(D27:E27)</f>
+        <v>39.666666194796562</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>39.666666194796562</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>39.666666902601719</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D57" si="27">+AVERAGE(C28:D28)</f>
+        <v>39.666666902601719</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>39.666666194796562</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>39.666666902601719</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30:D57" si="28">+AVERAGE(D29:E29)</f>
+        <v>39.666666548699141</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>39.666666548699141</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>39.66666672565043</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D57" si="29">+AVERAGE(C30:D30)</f>
+        <v>39.66666672565043</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>39.666666548699141</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>39.66666672565043</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D57" si="30">+AVERAGE(D31:E31)</f>
+        <v>39.666666637174785</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>39.666666637174785</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>39.666666681412607</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D57" si="31">+AVERAGE(C32:D32)</f>
+        <v>39.666666681412607</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>39.666666637174785</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>39.666666681412607</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D57" si="32">+AVERAGE(D33:E33)</f>
+        <v>39.666666659293696</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>39.666666659293696</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>39.666666670353152</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D57" si="33">+AVERAGE(C34:D34)</f>
+        <v>39.666666670353152</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>39.666666659293696</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>39.666666670353152</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D57" si="34">+AVERAGE(D35:E35)</f>
+        <v>39.666666664823424</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>39.666666664823424</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>39.666666667588288</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D57" si="35">+AVERAGE(C36:D36)</f>
+        <v>39.666666667588288</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>39.666666664823424</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>39.666666667588288</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D57" si="36">+AVERAGE(D37:E37)</f>
+        <v>39.666666666205856</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>39.666666666205856</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>39.666666666897072</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D57" si="37">+AVERAGE(C38:D38)</f>
+        <v>39.666666666897072</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>39.666666666205856</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>39.666666666897072</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D57" si="38">+AVERAGE(D39:E39)</f>
+        <v>39.666666666551464</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>39.666666666551464</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>39.666666666724268</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41:D57" si="39">+AVERAGE(C40:D40)</f>
+        <v>39.666666666724268</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>39.666666666551464</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>39.666666666724268</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42:D57" si="40">+AVERAGE(D41:E41)</f>
+        <v>39.666666666637866</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>39.666666666637866</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>39.666666666681067</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43:D57" si="41">+AVERAGE(C42:D42)</f>
+        <v>39.666666666681067</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>39.666666666637866</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>39.666666666681067</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D57" si="42">+AVERAGE(D43:E43)</f>
+        <v>39.666666666659467</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>39.666666666659467</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>39.666666666670267</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D57" si="43">+AVERAGE(C44:D44)</f>
+        <v>39.666666666670267</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>39.666666666659467</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>39.666666666670267</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46:D57" si="44">+AVERAGE(D45:E45)</f>
+        <v>39.666666666664867</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>39.666666666664867</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>39.666666666667567</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D57" si="45">+AVERAGE(C46:D46)</f>
+        <v>39.666666666667567</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>39.666666666664867</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>39.666666666667567</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D57" si="46">+AVERAGE(D47:E47)</f>
+        <v>39.666666666666217</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>39.666666666666217</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>39.666666666666892</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ref="D49:D57" si="47">+AVERAGE(C48:D48)</f>
+        <v>39.666666666666892</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>39.666666666666217</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>39.666666666666892</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50:D57" si="48">+AVERAGE(D49:E49)</f>
+        <v>39.666666666666558</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>39.666666666666558</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>39.666666666666728</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:D57" si="49">+AVERAGE(C50:D50)</f>
+        <v>39.666666666666728</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>39.666666666666558</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>39.666666666666728</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D57" si="50">+AVERAGE(D51:E51)</f>
+        <v>39.666666666666643</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>39.666666666666643</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>39.666666666666686</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D57" si="51">+AVERAGE(C52:D52)</f>
+        <v>39.666666666666686</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>39.666666666666643</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>39.666666666666686</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D57" si="52">+AVERAGE(D53:E53)</f>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>39.666666666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D57" si="53">+AVERAGE(C54:D54)</f>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>39.666666666666664</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D57" si="54">+AVERAGE(D55:E55)</f>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>39.666666666666671</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57" si="55">+AVERAGE(C56:D56)</f>
+        <v>39.666666666666671</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>39.666666666666671</v>
       </c>
     </row>
   </sheetData>
